--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -3,28 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5135B9FE-6B26-4984-A3C6-4F49D50C196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C2A54-227D-442C-8F12-00A6A08F5B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3948" yWindow="792" windowWidth="17280" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t xml:space="preserve">NO </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
+    <t>ふりがな</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -83,26 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中　桃子</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モモコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊勢　洋司</t>
-    <rPh sb="0" eb="2">
-      <t>イセ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
@@ -113,16 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小林　希美</t>
-    <rPh sb="0" eb="2">
-      <t>コバヤシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノゾミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主婦</t>
   </si>
   <si>
@@ -130,16 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>萩原　芳夫</t>
-    <rPh sb="0" eb="2">
-      <t>ハギワラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨシオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フリーター</t>
   </si>
   <si>
@@ -147,16 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内田　恵子</t>
-    <rPh sb="0" eb="2">
-      <t>ウチダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社員</t>
   </si>
   <si>
@@ -164,167 +122,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三上　真一</t>
-    <rPh sb="0" eb="2">
-      <t>ミカミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>248-0024</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北山　寛子</t>
-    <rPh sb="0" eb="2">
-      <t>キタヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>182-0002</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高木　和美</t>
-    <rPh sb="0" eb="2">
-      <t>タカギ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>601-8478</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中村　泰輔</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>264-0028</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>岡崎　第五</t>
-    <rPh sb="0" eb="2">
-      <t>オカザキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>459-8004</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山本　紀夫</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノリオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>602-8345</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>斎藤　薫</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>330--0042</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>前田　隆</t>
-    <rPh sb="0" eb="2">
-      <t>マエダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>214-0014</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>樋村　礼子</t>
-    <rPh sb="0" eb="2">
-      <t>ヒムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>723-0047</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服部　健介</t>
-    <rPh sb="0" eb="2">
-      <t>ハットリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>558-0014</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水島　歩美</t>
-    <rPh sb="0" eb="2">
-      <t>ミズシマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>243-0423</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中山　浩江</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -445,6 +283,183 @@
       <t>トドウフケン2</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指名</t>
+    <rPh sb="0" eb="2">
+      <t>しめい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>田中　桃子</t>
+    <rPh sb="0" eb="2">
+      <t>たなか</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ももこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>伊勢　洋司</t>
+    <rPh sb="0" eb="2">
+      <t>いせ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ようじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小林　希美</t>
+    <rPh sb="0" eb="2">
+      <t>こばやし</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のぞみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>萩原　芳夫</t>
+    <rPh sb="0" eb="2">
+      <t>はぎわら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>よしお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>内田　恵子</t>
+    <rPh sb="0" eb="2">
+      <t>うちだ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けいこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>三上　真一</t>
+    <rPh sb="0" eb="2">
+      <t>みかみ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>しんいち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>北山　寛子</t>
+    <rPh sb="0" eb="2">
+      <t>きたやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>高木　和美</t>
+    <rPh sb="0" eb="2">
+      <t>たかぎ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かずみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中村　泰輔</t>
+    <rPh sb="0" eb="2">
+      <t>なかむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>たいすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>岡崎　第五</t>
+    <rPh sb="0" eb="2">
+      <t>おかざき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>だいご</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山本　紀夫</t>
+    <rPh sb="0" eb="2">
+      <t>さんだーらいがー</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のりお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>斎藤　薫</t>
+    <rPh sb="0" eb="2">
+      <t>さいとう</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>かおる</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>前田　隆</t>
+    <rPh sb="0" eb="2">
+      <t>まえだ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>たかし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>樋村　礼子</t>
+    <rPh sb="0" eb="2">
+      <t>といむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あややこん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>服部　健介</t>
+    <rPh sb="0" eb="2">
+      <t>はっとり</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けんすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水島　歩美</t>
+    <rPh sb="0" eb="2">
+      <t>みずしま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あゆみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中山　浩江</t>
+    <rPh sb="0" eb="2">
+      <t>なかやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろえ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -493,7 +508,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -507,11 +526,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAD29577-439C-4219-BB5E-94928200C04A}" name="テーブル1" displayName="テーブル1" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18" xr:uid="{CAD29577-439C-4219-BB5E-94928200C04A}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAD29577-439C-4219-BB5E-94928200C04A}" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18" xr:uid="{CAD29577-439C-4219-BB5E-94928200C04A}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B7D82D5F-19DC-4BCA-9AB4-15F2682E13A6}" name="NO "/>
     <tableColumn id="2" xr3:uid="{5A09A22C-88CD-4D43-B882-203702253DBB}" name="指名"/>
+    <tableColumn id="14" xr3:uid="{CAE2B5C9-D6A0-41F2-9EDB-9E37C65A0E18}" name="ふりがな" dataDxfId="0">
+      <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[指名]])</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{64A02AB7-E862-48C2-AE38-CE42881D47F1}" name="性別"/>
     <tableColumn id="5" xr3:uid="{ACE7DB59-2C1C-4FEB-9962-DA436EF7E505}" name="年齢"/>
     <tableColumn id="6" xr3:uid="{29EAAD39-C08E-4C09-B631-0B80DEAE94A3}" name="職業"/>
@@ -811,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -820,505 +842,577 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>たなか　ももこ</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
       <c r="H2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>いせ　ようじ</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>こばやし　のぞみ</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+        <v>67</v>
+      </c>
+      <c r="C5" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>はぎわら　よしお</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>うちだ　けいこ</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="C7" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>みかみ　しんいち</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>きたやま　ひろこ</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>たかぎ　かずみ</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="C10" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>なかむら　たいすけ</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
       <c r="H10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
+        <v>73</v>
+      </c>
+      <c r="C11" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>おかざき　だいご</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="C12" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>さんだーらいがー　のりお</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>さいとう　かおる</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
       <c r="I13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="C14" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>まえだ　たかし</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>といむら　あややこん</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="C16" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>はっとり　けんすけ</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>みずしま　あゆみ</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
+        <v>なかやま　ひろえ</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{344EFCFB-0482-4B9E-87B5-805CCAAC14A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{344EFCFB-0482-4B9E-87B5-805CCAAC14A3}">
       <formula1>"女,男"</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18 F2:F18" xr:uid="{98744CCF-D35A-45D8-9431-ACAB4FF4DA84}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18" xr:uid="{5B61B05A-0CF2-416C-AE89-1A2B3831C572}">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18 G2:G18" xr:uid="{98744CCF-D35A-45D8-9431-ACAB4FF4DA84}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{5B61B05A-0CF2-416C-AE89-1A2B3831C572}">
       <formula1>"自営業,学生,フリーター,主婦,会社員"</formula1>
     </dataValidation>
   </dataValidations>

--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C2A54-227D-442C-8F12-00A6A08F5B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F715E51-BAD6-461B-8E79-7A7B086F7EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3996" yWindow="804" windowWidth="17280" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フリーター</t>
-  </si>
-  <si>
     <t>279-0012</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -460,6 +457,9 @@
       <t>ひろえ</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
   </si>
 </sst>
 </file>
@@ -833,22 +833,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -874,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -888,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -907,10 +909,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -918,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -937,10 +939,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -948,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -967,10 +969,10 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -978,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -991,19 +993,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1011,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1024,24 +1026,24 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1057,21 +1059,21 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1084,27 +1086,27 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1120,21 +1122,21 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1147,16 +1149,16 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1164,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1180,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1194,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1210,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1224,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1240,16 +1242,16 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1257,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1273,13 +1275,13 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1287,7 +1289,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1303,13 +1305,13 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1330,16 +1332,16 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1347,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1363,16 +1365,16 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1380,7 +1382,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="str">
         <f>PHONETIC(テーブル1[[#This Row],[指名]])</f>
@@ -1396,25 +1398,22 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{344EFCFB-0482-4B9E-87B5-805CCAAC14A3}">
       <formula1>"女,男"</formula1>
     </dataValidation>
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18 G2:G18" xr:uid="{98744CCF-D35A-45D8-9431-ACAB4FF4DA84}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{5B61B05A-0CF2-416C-AE89-1A2B3831C572}">
-      <formula1>"自営業,学生,フリーター,主婦,会社員"</formula1>
-    </dataValidation>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18 E2:E18" xr:uid="{98744CCF-D35A-45D8-9431-ACAB4FF4DA84}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
